--- a/biology/Botanique/Dialium_polyanthum/Dialium_polyanthum.xlsx
+++ b/biology/Botanique/Dialium_polyanthum/Dialium_polyanthum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dialium polyanthum est une espèce de plantes à fleurs de la famille des Fabaceae et de la famille des Dialioideae[1]. C'est un arbre trouvé en Afrique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dialium polyanthum est une espèce de plantes à fleurs de la famille des Fabaceae et de la famille des Dialioideae. C'est un arbre trouvé en Afrique.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,10 +551,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants d'Afrique centrale[2] : Angola (Cabinda et nord de l'Angola)[3], Cameroun, Gabon, République centrafricaine, République du Congo, et République démocratique du Congo[2].
-Il se rencontre aussi dans des pays d'Afrique de l'Ouest : en Côte d'Ivoire et au Liberia[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants d'Afrique centrale : Angola (Cabinda et nord de l'Angola), Cameroun, Gabon, République centrafricaine, République du Congo, et République démocratique du Congo.
+Il se rencontre aussi dans des pays d'Afrique de l'Ouest : en Côte d'Ivoire et au Liberia.
 </t>
         </is>
       </c>
@@ -569,10 +585,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Dialium polyanthum Harms 1915[4].
-Dialium polyanthum a pour synonymes[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Dialium polyanthum Harms 1915.
+Dialium polyanthum a pour synonymes :
 Dialium aubrevillei Pellegr.
 Dialium corbisieri Staner</t>
         </is>
